--- a/src/test/TestData/testdata.xlsx
+++ b/src/test/TestData/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,11 +504,6 @@
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -598,7 +593,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
